--- a/output/not_in_GBIF_siphonaptera.xlsx
+++ b/output/not_in_GBIF_siphonaptera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:40009_{94BE63FC-7F2F-416B-A7F0-1B078ACFE960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BF63115-3F93-43DE-9C6E-45FE79DE3125}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:40009_{94BE63FC-7F2F-416B-A7F0-1B078ACFE960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15CA91F7-AF5D-4E28-9EDE-3BFD4D97F01C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23524" uniqueCount="3627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23538" uniqueCount="3640">
   <si>
     <t>family</t>
   </si>
@@ -10607,9 +10607,6 @@
   </si>
   <si>
     <t>Correct name</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>https://www.gbif.org/species/5051147</t>
@@ -10934,6 +10931,48 @@
   </si>
   <si>
     <t>https://www.cambridge.org/core/journals/canadian-entomologist/article/abs/two-new-species-and-three-new-subspecies-of-acanthopsylla-from-australia-with-some-notes-on-the-genus-siphonaptera-pygiopsyllidae/C992F3F8F6A4BDCA13544424D8986650</t>
+  </si>
+  <si>
+    <t>Ceratophyllus ciliatus</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/1417164</t>
+  </si>
+  <si>
+    <t>https://journal.entsocbc.ca/index.php/journal/article/view/2463</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/6194180</t>
+  </si>
+  <si>
+    <t>Ceratophyllus ciliatus protinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratophyllus ciliatus mononis </t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/6194183</t>
+  </si>
+  <si>
+    <t>https://eurekamag.com/research/004/601/004601719.php</t>
+  </si>
+  <si>
+    <t>GBIF</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>spirataenius OR mengdaensis</t>
+  </si>
+  <si>
+    <t>Amphalius runatus necopinus</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/6194122</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/1417061</t>
   </si>
 </sst>
 </file>
@@ -11452,13 +11491,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11505,7 +11545,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11831,10 +11891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP615"/>
+  <dimension ref="A1:AR615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG609" workbookViewId="0">
-      <selection activeCell="AN615" sqref="AN615"/>
+    <sheetView tabSelected="1" topLeftCell="AM601" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AR615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11845,7 +11905,7 @@
     <col min="41" max="41" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11970,10 +12030,13 @@
         <v>3528</v>
       </c>
       <c r="AP1" t="s">
-        <v>3529</v>
+        <v>3634</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3635</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -12091,17 +12154,17 @@
       <c r="AM2" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="5" t="s">
         <v>3527</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>3530</v>
+      <c r="AP2" s="6" t="s">
+        <v>3529</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -12219,17 +12282,17 @@
       <c r="AM3" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>3625</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AO3" s="5" t="s">
         <v>3624</v>
       </c>
+      <c r="AP3" s="5" t="s">
+        <v>3623</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12347,17 +12410,18 @@
       <c r="AM4" t="s">
         <v>41</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="5" t="s">
         <v>1299</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="5" t="s">
         <v>1299</v>
       </c>
-      <c r="AP4" t="s">
-        <v>3626</v>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" t="s">
+        <v>3625</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -12475,17 +12539,18 @@
       <c r="AM5" t="s">
         <v>41</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AP5" t="s">
-        <v>3531</v>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" t="s">
+        <v>3530</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -12603,11 +12668,13 @@
       <c r="AM6" t="s">
         <v>41</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="5" t="s">
         <v>2437</v>
       </c>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -12725,17 +12792,18 @@
       <c r="AM7" t="s">
         <v>41</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AP7" t="s">
-        <v>3532</v>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" t="s">
+        <v>3531</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -12853,11 +12921,13 @@
       <c r="AM8" t="s">
         <v>41</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="5" t="s">
         <v>1800</v>
       </c>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -12975,17 +13045,17 @@
       <c r="AM9" t="s">
         <v>41</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AN9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AO9" s="5" t="s">
+        <v>3532</v>
+      </c>
+      <c r="AP9" s="5" t="s">
         <v>3533</v>
       </c>
-      <c r="AP9" s="1" t="s">
-        <v>3534</v>
-      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -13103,11 +13173,13 @@
       <c r="AM10" t="s">
         <v>41</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="5" t="s">
         <v>1306</v>
       </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -13225,17 +13297,17 @@
       <c r="AM11" t="s">
         <v>41</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AN11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AO11" s="5" t="s">
+        <v>3534</v>
+      </c>
+      <c r="AP11" s="5" t="s">
         <v>3535</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>3536</v>
-      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -13356,8 +13428,14 @@
       <c r="AN12" t="s">
         <v>96</v>
       </c>
+      <c r="AO12" t="s">
+        <v>3626</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>3627</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -13478,8 +13556,14 @@
       <c r="AN13" t="s">
         <v>3049</v>
       </c>
+      <c r="AO13" t="s">
+        <v>3631</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>3632</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -13600,8 +13684,17 @@
       <c r="AN14" t="s">
         <v>1815</v>
       </c>
+      <c r="AO14" t="s">
+        <v>3630</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>3629</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>3628</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -13722,8 +13815,14 @@
       <c r="AN15" t="s">
         <v>1314</v>
       </c>
+      <c r="AO15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>3633</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -13844,8 +13943,14 @@
       <c r="AN16" t="s">
         <v>1320</v>
       </c>
+      <c r="AO16" t="s">
+        <v>3637</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>3638</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -13966,8 +14071,14 @@
       <c r="AN17" t="s">
         <v>1327</v>
       </c>
+      <c r="AP17" t="s">
+        <v>3639</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>3636</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -14089,7 +14200,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14211,7 +14322,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -14336,10 +14447,10 @@
         <v>105</v>
       </c>
       <c r="AP20" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -14461,7 +14572,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -14583,7 +14694,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -14705,7 +14816,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -14827,13 +14938,13 @@
         <v>113</v>
       </c>
       <c r="AO24" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="AP24" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="AP24" s="1" t="s">
-        <v>3539</v>
-      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -14955,13 +15066,13 @@
         <v>119</v>
       </c>
       <c r="AO25" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="AP25" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -15086,10 +15197,10 @@
         <v>127</v>
       </c>
       <c r="AP26" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -15214,10 +15325,10 @@
         <v>131</v>
       </c>
       <c r="AP27" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -15342,10 +15453,10 @@
         <v>135</v>
       </c>
       <c r="AP28" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -15467,7 +15578,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>520</v>
       </c>
@@ -15589,7 +15700,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -15711,7 +15822,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -15833,10 +15944,10 @@
         <v>141</v>
       </c>
       <c r="AO32" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="AP32" s="1" t="s">
         <v>3543</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>3544</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.35">
@@ -15964,7 +16075,7 @@
         <v>149</v>
       </c>
       <c r="AP33" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.35">
@@ -16942,8 +17053,8 @@
       <c r="AN41" t="s">
         <v>183</v>
       </c>
-      <c r="AP41" s="3" t="s">
-        <v>3546</v>
+      <c r="AP41" s="2" t="s">
+        <v>3545</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.35">
@@ -35981,7 +36092,7 @@
         <v>367</v>
       </c>
       <c r="AP197" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.35">
@@ -44527,7 +44638,7 @@
         <v>545</v>
       </c>
       <c r="AP267" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.35">
@@ -52341,7 +52452,7 @@
         <v>729</v>
       </c>
       <c r="AP331" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="332" spans="1:42" x14ac:dyDescent="0.35">
@@ -56495,7 +56606,7 @@
         <v>798</v>
       </c>
       <c r="AP365" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="366" spans="1:42" x14ac:dyDescent="0.35">
@@ -82114,14 +82225,14 @@
       <c r="AM575" t="s">
         <v>41</v>
       </c>
-      <c r="AN575" s="4" t="s">
+      <c r="AN575" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="AO575" s="4" t="s">
+      <c r="AO575" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="AP575" s="4" t="s">
-        <v>3547</v>
+      <c r="AP575" s="3" t="s">
+        <v>3546</v>
       </c>
     </row>
     <row r="576" spans="1:42" x14ac:dyDescent="0.35">
@@ -82242,7 +82353,7 @@
       <c r="AM576" t="s">
         <v>41</v>
       </c>
-      <c r="AN576" s="5" t="s">
+      <c r="AN576" s="4" t="s">
         <v>3341</v>
       </c>
     </row>
@@ -82364,14 +82475,14 @@
       <c r="AM577" t="s">
         <v>41</v>
       </c>
-      <c r="AN577" s="5" t="s">
+      <c r="AN577" s="4" t="s">
         <v>3511</v>
       </c>
-      <c r="AO577" s="5" t="s">
+      <c r="AO577" s="4" t="s">
+        <v>3621</v>
+      </c>
+      <c r="AP577" s="4" t="s">
         <v>3622</v>
-      </c>
-      <c r="AP577" s="5" t="s">
-        <v>3623</v>
       </c>
     </row>
     <row r="578" spans="1:42" x14ac:dyDescent="0.35">
@@ -82492,14 +82603,14 @@
       <c r="AM578" t="s">
         <v>41</v>
       </c>
-      <c r="AN578" s="5" t="s">
+      <c r="AN578" s="4" t="s">
         <v>3516</v>
       </c>
-      <c r="AO578" s="5" t="s">
+      <c r="AO578" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AP578" s="4" t="s">
         <v>3548</v>
-      </c>
-      <c r="AP578" s="5" t="s">
-        <v>3549</v>
       </c>
     </row>
     <row r="579" spans="1:42" x14ac:dyDescent="0.35">
@@ -82617,14 +82728,14 @@
       <c r="AM579" t="s">
         <v>41</v>
       </c>
-      <c r="AN579" s="5" t="s">
+      <c r="AN579" s="4" t="s">
         <v>3482</v>
       </c>
-      <c r="AO579" s="5" t="s">
+      <c r="AO579" s="4" t="s">
+        <v>3549</v>
+      </c>
+      <c r="AP579" s="4" t="s">
         <v>3550</v>
-      </c>
-      <c r="AP579" s="5" t="s">
-        <v>3551</v>
       </c>
     </row>
     <row r="580" spans="1:42" x14ac:dyDescent="0.35">
@@ -82745,14 +82856,14 @@
       <c r="AM580" t="s">
         <v>41</v>
       </c>
-      <c r="AN580" s="5" t="s">
+      <c r="AN580" s="4" t="s">
         <v>3488</v>
       </c>
-      <c r="AO580" s="5" t="s">
+      <c r="AO580" s="4" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AP580" s="4" t="s">
         <v>3552</v>
-      </c>
-      <c r="AP580" s="5" t="s">
-        <v>3553</v>
       </c>
     </row>
     <row r="581" spans="1:42" x14ac:dyDescent="0.35">
@@ -82873,14 +82984,14 @@
       <c r="AM581" t="s">
         <v>41</v>
       </c>
-      <c r="AN581" s="5" t="s">
+      <c r="AN581" s="4" t="s">
         <v>3492</v>
       </c>
-      <c r="AO581" s="5" t="s">
+      <c r="AO581" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="AP581" s="4" t="s">
         <v>3554</v>
-      </c>
-      <c r="AP581" s="5" t="s">
-        <v>3555</v>
       </c>
     </row>
     <row r="582" spans="1:42" x14ac:dyDescent="0.35">
@@ -83008,7 +83119,7 @@
         <v>3440</v>
       </c>
       <c r="AP582" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="583" spans="1:42" x14ac:dyDescent="0.35">
@@ -83129,14 +83240,14 @@
       <c r="AM583" t="s">
         <v>41</v>
       </c>
-      <c r="AN583" s="5" t="s">
+      <c r="AN583" s="4" t="s">
         <v>3480</v>
       </c>
-      <c r="AO583" s="5" t="s">
+      <c r="AO583" s="4" t="s">
+        <v>3556</v>
+      </c>
+      <c r="AP583" s="4" t="s">
         <v>3557</v>
-      </c>
-      <c r="AP583" s="5" t="s">
-        <v>3558</v>
       </c>
     </row>
     <row r="584" spans="1:42" x14ac:dyDescent="0.35">
@@ -83257,14 +83368,14 @@
       <c r="AM584" t="s">
         <v>41</v>
       </c>
-      <c r="AN584" s="5" t="s">
+      <c r="AN584" s="4" t="s">
         <v>3526</v>
       </c>
-      <c r="AO584" s="5" t="s">
+      <c r="AO584" s="4" t="s">
+        <v>3558</v>
+      </c>
+      <c r="AP584" s="4" t="s">
         <v>3559</v>
-      </c>
-      <c r="AP584" s="5" t="s">
-        <v>3560</v>
       </c>
     </row>
     <row r="585" spans="1:42" x14ac:dyDescent="0.35">
@@ -83385,14 +83496,14 @@
       <c r="AM585" t="s">
         <v>41</v>
       </c>
-      <c r="AN585" s="5" t="s">
+      <c r="AN585" s="4" t="s">
         <v>3409</v>
       </c>
-      <c r="AO585" s="5" t="s">
-        <v>3561</v>
-      </c>
-      <c r="AP585" s="5" t="s">
-        <v>3564</v>
+      <c r="AO585" s="4" t="s">
+        <v>3560</v>
+      </c>
+      <c r="AP585" s="4" t="s">
+        <v>3563</v>
       </c>
     </row>
     <row r="586" spans="1:42" x14ac:dyDescent="0.35">
@@ -83513,14 +83624,14 @@
       <c r="AM586" t="s">
         <v>41</v>
       </c>
-      <c r="AN586" s="5" t="s">
+      <c r="AN586" s="4" t="s">
         <v>3401</v>
       </c>
-      <c r="AO586" s="5" t="s">
+      <c r="AO586" s="4" t="s">
+        <v>3564</v>
+      </c>
+      <c r="AP586" s="4" t="s">
         <v>3565</v>
-      </c>
-      <c r="AP586" s="5" t="s">
-        <v>3566</v>
       </c>
     </row>
     <row r="587" spans="1:42" x14ac:dyDescent="0.35">
@@ -83641,14 +83752,14 @@
       <c r="AM587" t="s">
         <v>41</v>
       </c>
-      <c r="AN587" s="5" t="s">
+      <c r="AN587" s="4" t="s">
         <v>3505</v>
       </c>
-      <c r="AO587" s="5" t="s">
-        <v>3562</v>
-      </c>
-      <c r="AP587" s="5" t="s">
-        <v>3567</v>
+      <c r="AO587" s="4" t="s">
+        <v>3561</v>
+      </c>
+      <c r="AP587" s="4" t="s">
+        <v>3566</v>
       </c>
     </row>
     <row r="588" spans="1:42" x14ac:dyDescent="0.35">
@@ -83776,7 +83887,7 @@
         <v>3497</v>
       </c>
       <c r="AP588" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="589" spans="1:42" x14ac:dyDescent="0.35">
@@ -83897,14 +84008,14 @@
       <c r="AM589" t="s">
         <v>41</v>
       </c>
-      <c r="AN589" s="5" t="s">
+      <c r="AN589" s="4" t="s">
         <v>3420</v>
       </c>
-      <c r="AO589" s="5" t="s">
-        <v>3563</v>
-      </c>
-      <c r="AP589" s="5" t="s">
-        <v>3569</v>
+      <c r="AO589" s="4" t="s">
+        <v>3562</v>
+      </c>
+      <c r="AP589" s="4" t="s">
+        <v>3568</v>
       </c>
     </row>
     <row r="590" spans="1:42" x14ac:dyDescent="0.35">
@@ -84025,14 +84136,14 @@
       <c r="AM590" t="s">
         <v>41</v>
       </c>
-      <c r="AN590" s="5" t="s">
+      <c r="AN590" s="4" t="s">
         <v>3444</v>
       </c>
-      <c r="AO590" s="5" t="s">
+      <c r="AO590" s="4" t="s">
+        <v>3569</v>
+      </c>
+      <c r="AP590" s="4" t="s">
         <v>3570</v>
-      </c>
-      <c r="AP590" s="5" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="591" spans="1:42" x14ac:dyDescent="0.35">
@@ -84150,14 +84261,14 @@
       <c r="AM591" t="s">
         <v>41</v>
       </c>
-      <c r="AN591" s="5" t="s">
+      <c r="AN591" s="4" t="s">
         <v>3404</v>
       </c>
-      <c r="AO591" s="5" t="s">
+      <c r="AO591" s="4" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AP591" s="4" t="s">
         <v>3572</v>
-      </c>
-      <c r="AP591" s="5" t="s">
-        <v>3573</v>
       </c>
     </row>
     <row r="592" spans="1:42" x14ac:dyDescent="0.35">
@@ -84278,14 +84389,14 @@
       <c r="AM592" t="s">
         <v>41</v>
       </c>
-      <c r="AN592" s="5" t="s">
+      <c r="AN592" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="AO592" s="5" t="s">
+      <c r="AO592" s="4" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AP592" s="4" t="s">
         <v>3616</v>
-      </c>
-      <c r="AP592" s="5" t="s">
-        <v>3617</v>
       </c>
     </row>
     <row r="593" spans="1:42" x14ac:dyDescent="0.35">
@@ -84406,14 +84517,14 @@
       <c r="AM593" t="s">
         <v>41</v>
       </c>
-      <c r="AN593" s="5" t="s">
+      <c r="AN593" s="4" t="s">
         <v>3358</v>
       </c>
-      <c r="AO593" s="5" t="s">
+      <c r="AO593" s="4" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AP593" s="4" t="s">
         <v>3574</v>
-      </c>
-      <c r="AP593" s="5" t="s">
-        <v>3575</v>
       </c>
     </row>
     <row r="594" spans="1:42" x14ac:dyDescent="0.35">
@@ -84534,14 +84645,14 @@
       <c r="AM594" t="s">
         <v>41</v>
       </c>
-      <c r="AN594" s="5" t="s">
+      <c r="AN594" s="4" t="s">
         <v>3435</v>
       </c>
-      <c r="AO594" s="5" t="s">
+      <c r="AO594" s="4" t="s">
+        <v>3575</v>
+      </c>
+      <c r="AP594" s="4" t="s">
         <v>3576</v>
-      </c>
-      <c r="AP594" s="5" t="s">
-        <v>3577</v>
       </c>
     </row>
     <row r="595" spans="1:42" x14ac:dyDescent="0.35">
@@ -84662,14 +84773,14 @@
       <c r="AM595" t="s">
         <v>41</v>
       </c>
-      <c r="AN595" s="5" t="s">
+      <c r="AN595" s="4" t="s">
         <v>3500</v>
       </c>
-      <c r="AO595" s="5" t="s">
-        <v>3579</v>
-      </c>
-      <c r="AP595" s="5" t="s">
+      <c r="AO595" s="4" t="s">
         <v>3578</v>
+      </c>
+      <c r="AP595" s="4" t="s">
+        <v>3577</v>
       </c>
     </row>
     <row r="596" spans="1:42" x14ac:dyDescent="0.35">
@@ -84790,14 +84901,14 @@
       <c r="AM596" t="s">
         <v>41</v>
       </c>
-      <c r="AN596" s="5" t="s">
+      <c r="AN596" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="AO596" s="5" t="s">
+      <c r="AO596" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="AP596" s="4" t="s">
         <v>3580</v>
-      </c>
-      <c r="AP596" s="5" t="s">
-        <v>3581</v>
       </c>
     </row>
     <row r="597" spans="1:42" x14ac:dyDescent="0.35">
@@ -84918,14 +85029,14 @@
       <c r="AM597" t="s">
         <v>41</v>
       </c>
-      <c r="AN597" s="5" t="s">
+      <c r="AN597" s="4" t="s">
         <v>3454</v>
       </c>
-      <c r="AO597" s="5" t="s">
+      <c r="AO597" s="4" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AP597" s="4" t="s">
         <v>3582</v>
-      </c>
-      <c r="AP597" s="5" t="s">
-        <v>3583</v>
       </c>
     </row>
     <row r="598" spans="1:42" x14ac:dyDescent="0.35">
@@ -85043,14 +85154,14 @@
       <c r="AM598" t="s">
         <v>41</v>
       </c>
-      <c r="AN598" s="5" t="s">
+      <c r="AN598" s="4" t="s">
         <v>3470</v>
       </c>
-      <c r="AO598" s="5" t="s">
+      <c r="AO598" s="4" t="s">
+        <v>3583</v>
+      </c>
+      <c r="AP598" s="4" t="s">
         <v>3584</v>
-      </c>
-      <c r="AP598" s="5" t="s">
-        <v>3585</v>
       </c>
     </row>
     <row r="599" spans="1:42" x14ac:dyDescent="0.35">
@@ -85171,14 +85282,14 @@
       <c r="AM599" t="s">
         <v>41</v>
       </c>
-      <c r="AN599" s="5" t="s">
+      <c r="AN599" s="4" t="s">
         <v>3468</v>
       </c>
-      <c r="AO599" s="5" t="s">
-        <v>3587</v>
-      </c>
-      <c r="AP599" s="5" t="s">
+      <c r="AO599" s="4" t="s">
         <v>3586</v>
+      </c>
+      <c r="AP599" s="4" t="s">
+        <v>3585</v>
       </c>
     </row>
     <row r="600" spans="1:42" x14ac:dyDescent="0.35">
@@ -85299,14 +85410,14 @@
       <c r="AM600" t="s">
         <v>41</v>
       </c>
-      <c r="AN600" s="5" t="s">
+      <c r="AN600" s="4" t="s">
         <v>3397</v>
       </c>
-      <c r="AO600" s="5" t="s">
+      <c r="AO600" s="4" t="s">
+        <v>3587</v>
+      </c>
+      <c r="AP600" s="4" t="s">
         <v>3588</v>
-      </c>
-      <c r="AP600" s="5" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="601" spans="1:42" x14ac:dyDescent="0.35">
@@ -85427,14 +85538,14 @@
       <c r="AM601" t="s">
         <v>41</v>
       </c>
-      <c r="AN601" s="5" t="s">
+      <c r="AN601" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="AO601" s="5" t="s">
+      <c r="AO601" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AP601" s="4" t="s">
         <v>3590</v>
-      </c>
-      <c r="AP601" s="5" t="s">
-        <v>3591</v>
       </c>
     </row>
     <row r="602" spans="1:42" x14ac:dyDescent="0.35">
@@ -85555,14 +85666,14 @@
       <c r="AM602" t="s">
         <v>41</v>
       </c>
-      <c r="AN602" s="5" t="s">
+      <c r="AN602" s="4" t="s">
         <v>3424</v>
       </c>
-      <c r="AO602" s="5" t="s">
+      <c r="AO602" s="4" t="s">
+        <v>3591</v>
+      </c>
+      <c r="AP602" s="4" t="s">
         <v>3592</v>
-      </c>
-      <c r="AP602" s="5" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="603" spans="1:42" x14ac:dyDescent="0.35">
@@ -85683,14 +85794,14 @@
       <c r="AM603" t="s">
         <v>41</v>
       </c>
-      <c r="AN603" s="5" t="s">
+      <c r="AN603" s="4" t="s">
         <v>3459</v>
       </c>
-      <c r="AO603" s="5" t="s">
+      <c r="AO603" s="4" t="s">
+        <v>3593</v>
+      </c>
+      <c r="AP603" s="4" t="s">
         <v>3594</v>
-      </c>
-      <c r="AP603" s="5" t="s">
-        <v>3595</v>
       </c>
     </row>
     <row r="604" spans="1:42" x14ac:dyDescent="0.35">
@@ -85811,14 +85922,14 @@
       <c r="AM604" t="s">
         <v>41</v>
       </c>
-      <c r="AN604" s="5" t="s">
+      <c r="AN604" s="4" t="s">
         <v>3464</v>
       </c>
-      <c r="AO604" s="5" t="s">
-        <v>3597</v>
-      </c>
-      <c r="AP604" s="5" t="s">
+      <c r="AO604" s="4" t="s">
         <v>3596</v>
+      </c>
+      <c r="AP604" s="4" t="s">
+        <v>3595</v>
       </c>
     </row>
     <row r="605" spans="1:42" x14ac:dyDescent="0.35">
@@ -85939,14 +86050,14 @@
       <c r="AM605" t="s">
         <v>41</v>
       </c>
-      <c r="AN605" s="5" t="s">
+      <c r="AN605" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="AO605" s="5" t="s">
+      <c r="AO605" s="4" t="s">
+        <v>3619</v>
+      </c>
+      <c r="AP605" s="4" t="s">
         <v>3620</v>
-      </c>
-      <c r="AP605" s="5" t="s">
-        <v>3621</v>
       </c>
     </row>
     <row r="606" spans="1:42" x14ac:dyDescent="0.35">
@@ -86067,14 +86178,14 @@
       <c r="AM606" t="s">
         <v>41</v>
       </c>
-      <c r="AN606" s="5" t="s">
+      <c r="AN606" s="4" t="s">
         <v>3381</v>
       </c>
-      <c r="AO606" s="5" t="s">
+      <c r="AO606" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="AP606" s="4" t="s">
         <v>3618</v>
-      </c>
-      <c r="AP606" s="5" t="s">
-        <v>3619</v>
       </c>
     </row>
     <row r="607" spans="1:42" x14ac:dyDescent="0.35">
@@ -86195,14 +86306,14 @@
       <c r="AM607" t="s">
         <v>41</v>
       </c>
-      <c r="AN607" s="5" t="s">
+      <c r="AN607" s="4" t="s">
         <v>3475</v>
       </c>
-      <c r="AO607" s="5" t="s">
+      <c r="AO607" s="4" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AP607" s="4" t="s">
         <v>3598</v>
-      </c>
-      <c r="AP607" s="5" t="s">
-        <v>3599</v>
       </c>
     </row>
     <row r="608" spans="1:42" x14ac:dyDescent="0.35">
@@ -86323,14 +86434,14 @@
       <c r="AM608" t="s">
         <v>41</v>
       </c>
-      <c r="AN608" s="5" t="s">
+      <c r="AN608" s="4" t="s">
         <v>3392</v>
       </c>
-      <c r="AO608" s="5" t="s">
+      <c r="AO608" s="4" t="s">
+        <v>3599</v>
+      </c>
+      <c r="AP608" s="4" t="s">
         <v>3600</v>
-      </c>
-      <c r="AP608" s="5" t="s">
-        <v>3601</v>
       </c>
     </row>
     <row r="609" spans="1:42" x14ac:dyDescent="0.35">
@@ -86451,14 +86562,14 @@
       <c r="AM609" t="s">
         <v>41</v>
       </c>
-      <c r="AN609" s="5" t="s">
+      <c r="AN609" s="4" t="s">
         <v>3429</v>
       </c>
-      <c r="AO609" s="5" t="s">
+      <c r="AO609" s="4" t="s">
+        <v>3601</v>
+      </c>
+      <c r="AP609" s="4" t="s">
         <v>3602</v>
-      </c>
-      <c r="AP609" s="5" t="s">
-        <v>3603</v>
       </c>
     </row>
     <row r="610" spans="1:42" x14ac:dyDescent="0.35">
@@ -86579,14 +86690,14 @@
       <c r="AM610" t="s">
         <v>41</v>
       </c>
-      <c r="AN610" s="5" t="s">
+      <c r="AN610" s="4" t="s">
         <v>3521</v>
       </c>
-      <c r="AO610" s="5" t="s">
+      <c r="AO610" s="4" t="s">
+        <v>3603</v>
+      </c>
+      <c r="AP610" s="4" t="s">
         <v>3604</v>
-      </c>
-      <c r="AP610" s="5" t="s">
-        <v>3605</v>
       </c>
     </row>
     <row r="611" spans="1:42" x14ac:dyDescent="0.35">
@@ -86707,14 +86818,14 @@
       <c r="AM611" t="s">
         <v>41</v>
       </c>
-      <c r="AN611" s="5" t="s">
+      <c r="AN611" s="4" t="s">
         <v>3367</v>
       </c>
-      <c r="AO611" s="5" t="s">
+      <c r="AO611" s="4" t="s">
+        <v>3605</v>
+      </c>
+      <c r="AP611" s="4" t="s">
         <v>3606</v>
-      </c>
-      <c r="AP611" s="5" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="612" spans="1:42" x14ac:dyDescent="0.35">
@@ -86835,14 +86946,14 @@
       <c r="AM612" t="s">
         <v>41</v>
       </c>
-      <c r="AN612" s="5" t="s">
+      <c r="AN612" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="AO612" s="5" t="s">
+      <c r="AO612" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="AP612" s="4" t="s">
         <v>3608</v>
-      </c>
-      <c r="AP612" s="5" t="s">
-        <v>3609</v>
       </c>
     </row>
     <row r="613" spans="1:42" x14ac:dyDescent="0.35">
@@ -86963,14 +87074,14 @@
       <c r="AM613" t="s">
         <v>41</v>
       </c>
-      <c r="AN613" s="5" t="s">
+      <c r="AN613" s="4" t="s">
         <v>3375</v>
       </c>
-      <c r="AO613" s="5" t="s">
-        <v>3611</v>
-      </c>
-      <c r="AP613" s="5" t="s">
+      <c r="AO613" s="4" t="s">
         <v>3610</v>
+      </c>
+      <c r="AP613" s="4" t="s">
+        <v>3609</v>
       </c>
     </row>
     <row r="614" spans="1:42" x14ac:dyDescent="0.35">
@@ -87091,14 +87202,14 @@
       <c r="AM614" t="s">
         <v>41</v>
       </c>
-      <c r="AN614" s="5" t="s">
+      <c r="AN614" s="4" t="s">
         <v>3414</v>
       </c>
-      <c r="AO614" s="5" t="s">
+      <c r="AO614" s="4" t="s">
+        <v>3613</v>
+      </c>
+      <c r="AP614" s="4" t="s">
         <v>3614</v>
-      </c>
-      <c r="AP614" s="5" t="s">
-        <v>3615</v>
       </c>
     </row>
     <row r="615" spans="1:42" x14ac:dyDescent="0.35">
@@ -87219,22 +87330,28 @@
       <c r="AM615" t="s">
         <v>41</v>
       </c>
-      <c r="AN615" s="5" t="s">
+      <c r="AN615" s="4" t="s">
         <v>3386</v>
       </c>
-      <c r="AO615" s="5" t="s">
+      <c r="AO615" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="AP615" s="4" t="s">
         <v>3612</v>
-      </c>
-      <c r="AP615" s="5" t="s">
-        <v>3613</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP615">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR615">
     <sortCondition ref="H2:H615"/>
     <sortCondition ref="AN2:AN615"/>
   </sortState>
-  <conditionalFormatting sqref="AN1:AN1048576">
+  <conditionalFormatting sqref="AN1:AN1048576 AO17">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO15">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
